--- a/biology/Botanique/Senegalia_pennata/Senegalia_pennata.xlsx
+++ b/biology/Botanique/Senegalia_pennata/Senegalia_pennata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Senegalia pennata est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Mimosoideae, originaire du Sud de l'Asie. La plante a été introduite dans diverses régions tropicales, notamment en Afrique de l'Ouest et en Australie.
 C'est un arbuste grimpant ou petit arbre tropical, épineux, pouvant atteindre 5 mètres de haut, aux feuilles bipennées finement divisées et aux fleurs jaunâtres groupées en panicules terminales.
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Plants of the World online (POWO)                (29 novembre 2021)[2] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (29 novembre 2021) :
 Acacia concinna Wall.* Acacia grahamii Vajr.
 Acacia horrida Span.
 Acacia pennata (L.) Willd.
@@ -528,8 +545,43 @@
 Mimosa megalodena Poir.
 Mimosa pennata L. (basionyme)
 Sericandra pennata (L.) Raf.
-Sous-espèces
-Selon NCBI  (29 novembre 2021)[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Senegalia_pennata</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Senegalia_pennata</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (29 novembre 2021) :
 Senegalia pennata subsp. hainanensis (Acacia hainanensis) Hayata
 Senegalia pennata subsp. insuavis (Acacia pennata subsp. insuavis) (Lace) I.C.Nielsen</t>
         </is>
